--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H2">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I2">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J2">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>6187.548007002344</v>
+        <v>6358.092907254931</v>
       </c>
       <c r="R2">
-        <v>6187.548007002344</v>
+        <v>25432.37162901972</v>
       </c>
       <c r="S2">
-        <v>0.1669220317461057</v>
+        <v>0.1594025668625824</v>
       </c>
       <c r="T2">
-        <v>0.1669220317461057</v>
+        <v>0.09983145032131996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H3">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I3">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J3">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>1500.407759530833</v>
+        <v>1618.812125946982</v>
       </c>
       <c r="R3">
-        <v>1500.407759530833</v>
+        <v>9712.872755681896</v>
       </c>
       <c r="S3">
-        <v>0.04047663329400882</v>
+        <v>0.04058493826816875</v>
       </c>
       <c r="T3">
-        <v>0.04047663329400882</v>
+        <v>0.0381266123399886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H4">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I4">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J4">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>4430.322260962282</v>
+        <v>4860.49614533553</v>
       </c>
       <c r="R4">
-        <v>4430.322260962282</v>
+        <v>29162.97687201318</v>
       </c>
       <c r="S4">
-        <v>0.1195171968367638</v>
+        <v>0.1218565964816446</v>
       </c>
       <c r="T4">
-        <v>0.1195171968367638</v>
+        <v>0.1144754535396196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H5">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I5">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J5">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>4091.603213059027</v>
+        <v>4209.025973003697</v>
       </c>
       <c r="R5">
-        <v>4091.603213059027</v>
+        <v>25254.15583802218</v>
       </c>
       <c r="S5">
-        <v>0.1103795430192689</v>
+        <v>0.1055237087401633</v>
       </c>
       <c r="T5">
-        <v>0.1103795430192689</v>
+        <v>0.09913188753004866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H6">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I6">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J6">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>4635.139868419108</v>
+        <v>4916.759796405247</v>
       </c>
       <c r="R6">
-        <v>4635.139868419108</v>
+        <v>29500.55877843148</v>
       </c>
       <c r="S6">
-        <v>0.1250425796112294</v>
+        <v>0.1232671720319547</v>
       </c>
       <c r="T6">
-        <v>0.1250425796112294</v>
+        <v>0.1158005871847068</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H7">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I7">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J7">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>1112.683719574247</v>
+        <v>1141.829937692917</v>
       </c>
       <c r="R7">
-        <v>1112.683719574247</v>
+        <v>4567.319750771668</v>
       </c>
       <c r="S7">
-        <v>0.03001696745656896</v>
+        <v>0.02862660638083936</v>
       </c>
       <c r="T7">
-        <v>0.03001696745656896</v>
+        <v>0.01792841664363175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H8">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I8">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J8">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>115.2557591670961</v>
+        <v>119.5042669629287</v>
       </c>
       <c r="R8">
-        <v>115.2557591670961</v>
+        <v>717.025601777572</v>
       </c>
       <c r="S8">
-        <v>0.003109264844303331</v>
+        <v>0.002996069290397732</v>
       </c>
       <c r="T8">
-        <v>0.003109264844303331</v>
+        <v>0.002814590270507592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H9">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I9">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J9">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>27.94816867509152</v>
+        <v>30.42656961512023</v>
       </c>
       <c r="R9">
-        <v>27.94816867509152</v>
+        <v>273.8391265360821</v>
       </c>
       <c r="S9">
-        <v>0.000753960226821619</v>
+        <v>0.0007628188779593045</v>
       </c>
       <c r="T9">
-        <v>0.000753960226821619</v>
+        <v>0.001074919695087605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H10">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I10">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J10">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>82.52382930431136</v>
+        <v>91.35601467252567</v>
       </c>
       <c r="R10">
-        <v>82.52382930431136</v>
+        <v>822.2041320527311</v>
       </c>
       <c r="S10">
-        <v>0.002226252667349891</v>
+        <v>0.002290369683104167</v>
       </c>
       <c r="T10">
-        <v>0.002226252667349891</v>
+        <v>0.003227454842211663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H11">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I11">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J11">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>76.21449304279622</v>
+        <v>79.11123207365968</v>
       </c>
       <c r="R11">
-        <v>76.21449304279622</v>
+        <v>712.001088662937</v>
       </c>
       <c r="S11">
-        <v>0.002056045143052764</v>
+        <v>0.001983383011879789</v>
       </c>
       <c r="T11">
-        <v>0.002056045143052764</v>
+        <v>0.00279486720107823</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H12">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I12">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J12">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>86.33897688967309</v>
+        <v>92.41352460133979</v>
       </c>
       <c r="R12">
-        <v>86.33897688967309</v>
+        <v>831.7217214120581</v>
       </c>
       <c r="S12">
-        <v>0.002329174242364604</v>
+        <v>0.002316882318196883</v>
       </c>
       <c r="T12">
-        <v>0.002329174242364604</v>
+        <v>0.00326481489510662</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H13">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I13">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J13">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N13">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O13">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P13">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q13">
-        <v>20.72601403128791</v>
+        <v>21.4613960020335</v>
       </c>
       <c r="R13">
-        <v>20.72601403128791</v>
+        <v>128.768376012201</v>
       </c>
       <c r="S13">
-        <v>0.0005591275200104582</v>
+        <v>0.0005380546747398036</v>
       </c>
       <c r="T13">
-        <v>0.0005591275200104582</v>
+        <v>0.0005054634274906037</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H14">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I14">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J14">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N14">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O14">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P14">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q14">
-        <v>28.66616715502497</v>
+        <v>14.107417147838</v>
       </c>
       <c r="R14">
-        <v>28.66616715502497</v>
+        <v>84.64450288702798</v>
       </c>
       <c r="S14">
-        <v>0.0007733297355390423</v>
+        <v>0.0003536844361932225</v>
       </c>
       <c r="T14">
-        <v>0.0007733297355390423</v>
+        <v>0.0003322609313909616</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H15">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I15">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J15">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N15">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P15">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q15">
-        <v>6.951209038981612</v>
+        <v>3.591840867668667</v>
       </c>
       <c r="R15">
-        <v>6.951209038981612</v>
+        <v>32.326567809018</v>
       </c>
       <c r="S15">
-        <v>0.000187523383182741</v>
+        <v>9.005037554814608E-05</v>
       </c>
       <c r="T15">
-        <v>0.000187523383182741</v>
+        <v>0.0001268937162196207</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H16">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I16">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J16">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N16">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O16">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P16">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q16">
-        <v>20.52515121331564</v>
+        <v>10.784530466591</v>
       </c>
       <c r="R16">
-        <v>20.52515121331564</v>
+        <v>97.06077419931898</v>
       </c>
       <c r="S16">
-        <v>0.0005537088259429153</v>
+        <v>0.000270376961120018</v>
       </c>
       <c r="T16">
-        <v>0.0005537088259429153</v>
+        <v>0.0003809993813778528</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H17">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I17">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J17">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N17">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O17">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P17">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q17">
-        <v>18.95590652466074</v>
+        <v>9.339040189156998</v>
       </c>
       <c r="R17">
-        <v>18.95590652466074</v>
+        <v>84.05136170241299</v>
       </c>
       <c r="S17">
-        <v>0.0005113751727024676</v>
+        <v>0.0002341373427377559</v>
       </c>
       <c r="T17">
-        <v>0.0005113751727024676</v>
+        <v>0.0003299326332059093</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H18">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I18">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J18">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N18">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O18">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P18">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q18">
-        <v>21.4740466020876</v>
+        <v>10.90936896887133</v>
       </c>
       <c r="R18">
-        <v>21.4740466020876</v>
+        <v>98.18432071984199</v>
       </c>
       <c r="S18">
-        <v>0.0005793072610627847</v>
+        <v>0.000273506764033728</v>
       </c>
       <c r="T18">
-        <v>0.0005793072610627847</v>
+        <v>0.0003854097163746605</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H19">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I19">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J19">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N19">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O19">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P19">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q19">
-        <v>5.154930104767463</v>
+        <v>2.5335067413915</v>
       </c>
       <c r="R19">
-        <v>5.154930104767463</v>
+        <v>15.201040448349</v>
       </c>
       <c r="S19">
-        <v>0.0001390650069499533</v>
+        <v>6.351707715385062E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001390650069499533</v>
+        <v>5.966969720669427E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H20">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I20">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J20">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N20">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O20">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P20">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q20">
-        <v>3818.983276197611</v>
+        <v>33.24072658863266</v>
       </c>
       <c r="R20">
-        <v>3818.983276197611</v>
+        <v>199.444359531796</v>
       </c>
       <c r="S20">
-        <v>0.1030250507868202</v>
+        <v>0.0008333720849783874</v>
       </c>
       <c r="T20">
-        <v>0.1030250507868202</v>
+        <v>0.0007828927620633946</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H21">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I21">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J21">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N21">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P21">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q21">
-        <v>926.0586155680401</v>
+        <v>8.463306853469556</v>
       </c>
       <c r="R21">
-        <v>926.0586155680401</v>
+        <v>76.16976168122601</v>
       </c>
       <c r="S21">
-        <v>0.02498236546232336</v>
+        <v>0.000212181994863486</v>
       </c>
       <c r="T21">
-        <v>0.02498236546232336</v>
+        <v>0.0002989944426020167</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H22">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I22">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J22">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N22">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O22">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P22">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q22">
-        <v>2734.415410374776</v>
+        <v>25.41114541875367</v>
       </c>
       <c r="R22">
-        <v>2734.415410374776</v>
+        <v>228.700308768783</v>
       </c>
       <c r="S22">
-        <v>0.07376656721225923</v>
+        <v>0.0006370781090735128</v>
       </c>
       <c r="T22">
-        <v>0.07376656721225923</v>
+        <v>0.0008977331664684125</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H23">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I23">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J23">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N23">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O23">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P23">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q23">
-        <v>2525.356445853094</v>
+        <v>22.00519615141567</v>
       </c>
       <c r="R23">
-        <v>2525.356445853094</v>
+        <v>198.046765362741</v>
       </c>
       <c r="S23">
-        <v>0.06812676497182338</v>
+        <v>0.0005516881873254504</v>
       </c>
       <c r="T23">
-        <v>0.06812676497182338</v>
+        <v>0.0007774066888456624</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H24">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I24">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J24">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N24">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O24">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P24">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q24">
-        <v>2860.829785934081</v>
+        <v>25.70529724531044</v>
       </c>
       <c r="R24">
-        <v>2860.829785934081</v>
+        <v>231.347675207794</v>
       </c>
       <c r="S24">
-        <v>0.07717685904133183</v>
+        <v>0.0006444527349062</v>
       </c>
       <c r="T24">
-        <v>0.07717685904133183</v>
+        <v>0.0009081250573621775</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H25">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I25">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J25">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N25">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O25">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P25">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q25">
-        <v>686.7535430743355</v>
+        <v>5.969597695915501</v>
       </c>
       <c r="R25">
-        <v>686.7535430743355</v>
+        <v>35.81758617549301</v>
       </c>
       <c r="S25">
-        <v>0.01852661128270441</v>
+        <v>0.0001496626755453818</v>
       </c>
       <c r="T25">
-        <v>0.01852661128270441</v>
+        <v>0.0001405972524728379</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.78889104350851</v>
+        <v>37.931061</v>
       </c>
       <c r="H26">
-        <v>2.78889104350851</v>
+        <v>113.793183</v>
       </c>
       <c r="I26">
-        <v>0.02826269524950941</v>
+        <v>0.3720571682364556</v>
       </c>
       <c r="J26">
-        <v>0.02826269524950941</v>
+        <v>0.4675536921644063</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N26">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O26">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P26">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q26">
-        <v>295.2229623198299</v>
+        <v>4083.775082514246</v>
       </c>
       <c r="R26">
-        <v>295.2229623198299</v>
+        <v>24502.65049508547</v>
       </c>
       <c r="S26">
-        <v>0.007964256056318522</v>
+        <v>0.1023835669182247</v>
       </c>
       <c r="T26">
-        <v>0.007964256056318522</v>
+        <v>0.09618195154279745</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.78889104350851</v>
+        <v>37.931061</v>
       </c>
       <c r="H27">
-        <v>2.78889104350851</v>
+        <v>113.793183</v>
       </c>
       <c r="I27">
-        <v>0.02826269524950941</v>
+        <v>0.3720571682364556</v>
       </c>
       <c r="J27">
-        <v>0.02826269524950941</v>
+        <v>0.4675536921644063</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N27">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P27">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q27">
-        <v>71.58810290523273</v>
+        <v>1039.755901596034</v>
       </c>
       <c r="R27">
-        <v>71.58810290523273</v>
+        <v>9357.803114364307</v>
       </c>
       <c r="S27">
-        <v>0.001931238605707389</v>
+        <v>0.02606752717246524</v>
       </c>
       <c r="T27">
-        <v>0.001931238605707389</v>
+        <v>0.03673283287754324</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.78889104350851</v>
+        <v>37.931061</v>
       </c>
       <c r="H28">
-        <v>2.78889104350851</v>
+        <v>113.793183</v>
       </c>
       <c r="I28">
-        <v>0.02826269524950941</v>
+        <v>0.3720571682364556</v>
       </c>
       <c r="J28">
-        <v>0.02826269524950941</v>
+        <v>0.4675536921644063</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N28">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O28">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P28">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q28">
-        <v>211.3814487471622</v>
+        <v>3121.875275576547</v>
       </c>
       <c r="R28">
-        <v>211.3814487471622</v>
+        <v>28096.87748018892</v>
       </c>
       <c r="S28">
-        <v>0.005702456103513226</v>
+        <v>0.07826795544052285</v>
       </c>
       <c r="T28">
-        <v>0.005702456103513226</v>
+        <v>0.1102906197370555</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.78889104350851</v>
+        <v>37.931061</v>
       </c>
       <c r="H29">
-        <v>2.78889104350851</v>
+        <v>113.793183</v>
       </c>
       <c r="I29">
-        <v>0.02826269524950941</v>
+        <v>0.3720571682364556</v>
       </c>
       <c r="J29">
-        <v>0.02826269524950941</v>
+        <v>0.4675536921644063</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N29">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O29">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P29">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q29">
-        <v>195.2203392732663</v>
+        <v>2703.438852017169</v>
       </c>
       <c r="R29">
-        <v>195.2203392732663</v>
+        <v>24330.94966815452</v>
       </c>
       <c r="S29">
-        <v>0.005266476418894851</v>
+        <v>0.06777741355050809</v>
       </c>
       <c r="T29">
-        <v>0.005266476418894851</v>
+        <v>0.09550796239133633</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.78889104350851</v>
+        <v>37.931061</v>
       </c>
       <c r="H30">
-        <v>2.78889104350851</v>
+        <v>113.793183</v>
       </c>
       <c r="I30">
-        <v>0.02826269524950941</v>
+        <v>0.3720571682364556</v>
       </c>
       <c r="J30">
-        <v>0.02826269524950941</v>
+        <v>0.4675536921644063</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N30">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O30">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P30">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q30">
-        <v>221.1537948752625</v>
+        <v>3158.013170955146</v>
       </c>
       <c r="R30">
-        <v>221.1537948752625</v>
+        <v>28422.11853859631</v>
       </c>
       <c r="S30">
-        <v>0.00596608555233248</v>
+        <v>0.07917396190635903</v>
       </c>
       <c r="T30">
-        <v>0.00596608555233248</v>
+        <v>0.1115673109964661</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>37.931061</v>
+      </c>
+      <c r="H31">
+        <v>113.793183</v>
+      </c>
+      <c r="I31">
+        <v>0.3720571682364556</v>
+      </c>
+      <c r="J31">
+        <v>0.4675536921644063</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>19.3348755</v>
+      </c>
+      <c r="N31">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O31">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P31">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q31">
+        <v>733.3923420179055</v>
+      </c>
+      <c r="R31">
+        <v>4400.354052107434</v>
+      </c>
+      <c r="S31">
+        <v>0.01838674324837571</v>
+      </c>
+      <c r="T31">
+        <v>0.01727301461920776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.4132665</v>
+      </c>
+      <c r="H32">
+        <v>6.826533</v>
+      </c>
+      <c r="I32">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J32">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>107.663086</v>
+      </c>
+      <c r="N32">
+        <v>215.326172</v>
+      </c>
+      <c r="O32">
+        <v>0.2751823527645522</v>
+      </c>
+      <c r="P32">
+        <v>0.2057131686791961</v>
+      </c>
+      <c r="Q32">
+        <v>367.482804730419</v>
+      </c>
+      <c r="R32">
+        <v>1469.931218921676</v>
+      </c>
+      <c r="S32">
+        <v>0.009213093172175823</v>
+      </c>
+      <c r="T32">
+        <v>0.00577002285111673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.4132665</v>
+      </c>
+      <c r="H33">
+        <v>6.826533</v>
+      </c>
+      <c r="I33">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J33">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>27.41172733333334</v>
+      </c>
+      <c r="N33">
+        <v>82.23518200000001</v>
+      </c>
+      <c r="O33">
+        <v>0.07006323059444025</v>
+      </c>
+      <c r="P33">
+        <v>0.07856388152449204</v>
+      </c>
+      <c r="Q33">
+        <v>93.56353061400101</v>
+      </c>
+      <c r="R33">
+        <v>561.3811836840061</v>
+      </c>
+      <c r="S33">
+        <v>0.00234571390543532</v>
+      </c>
+      <c r="T33">
+        <v>0.002203628453050952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.4132665</v>
+      </c>
+      <c r="H34">
+        <v>6.826533</v>
+      </c>
+      <c r="I34">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J34">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>82.303927</v>
+      </c>
+      <c r="N34">
+        <v>246.911781</v>
+      </c>
+      <c r="O34">
+        <v>0.2103654011331419</v>
+      </c>
+      <c r="P34">
+        <v>0.2358886724356653</v>
+      </c>
+      <c r="Q34">
+        <v>280.9252368475455</v>
+      </c>
+      <c r="R34">
+        <v>1685.551421085273</v>
+      </c>
+      <c r="S34">
+        <v>0.007043024457676769</v>
+      </c>
+      <c r="T34">
+        <v>0.006616411768932249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.4132665</v>
+      </c>
+      <c r="H35">
+        <v>6.826533</v>
+      </c>
+      <c r="I35">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J35">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>71.272429</v>
+      </c>
+      <c r="N35">
+        <v>213.817287</v>
+      </c>
+      <c r="O35">
+        <v>0.1821693528222338</v>
+      </c>
+      <c r="P35">
+        <v>0.2042716462128862</v>
+      </c>
+      <c r="Q35">
+        <v>243.2717942793285</v>
+      </c>
+      <c r="R35">
+        <v>1459.630765675971</v>
+      </c>
+      <c r="S35">
+        <v>0.006099021989619414</v>
+      </c>
+      <c r="T35">
+        <v>0.005729589768371418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2.78889104350851</v>
-      </c>
-      <c r="H31">
-        <v>2.78889104350851</v>
-      </c>
-      <c r="I31">
-        <v>0.02826269524950941</v>
-      </c>
-      <c r="J31">
-        <v>0.02826269524950941</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>19.0358265209011</v>
-      </c>
-      <c r="N31">
-        <v>19.0358265209011</v>
-      </c>
-      <c r="O31">
-        <v>0.05067395377897673</v>
-      </c>
-      <c r="P31">
-        <v>0.05067395377897673</v>
-      </c>
-      <c r="Q31">
-        <v>53.08884608992284</v>
-      </c>
-      <c r="R31">
-        <v>53.08884608992284</v>
-      </c>
-      <c r="S31">
-        <v>0.001432182512742945</v>
-      </c>
-      <c r="T31">
-        <v>0.001432182512742945</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.4132665</v>
+      </c>
+      <c r="H36">
+        <v>6.826533</v>
+      </c>
+      <c r="I36">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J36">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>83.25665266666667</v>
+      </c>
+      <c r="N36">
+        <v>249.769958</v>
+      </c>
+      <c r="O36">
+        <v>0.2128005281598046</v>
+      </c>
+      <c r="P36">
+        <v>0.2386192492246123</v>
+      </c>
+      <c r="Q36">
+        <v>284.177143449269</v>
+      </c>
+      <c r="R36">
+        <v>1705.062860695614</v>
+      </c>
+      <c r="S36">
+        <v>0.007124552404354085</v>
+      </c>
+      <c r="T36">
+        <v>0.006693001374595866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.4132665</v>
+      </c>
+      <c r="H37">
+        <v>6.826533</v>
+      </c>
+      <c r="I37">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J37">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>19.3348755</v>
+      </c>
+      <c r="N37">
+        <v>38.66975100000001</v>
+      </c>
+      <c r="O37">
+        <v>0.04941913452582716</v>
+      </c>
+      <c r="P37">
+        <v>0.03694338192314826</v>
+      </c>
+      <c r="Q37">
+        <v>65.99508282582076</v>
+      </c>
+      <c r="R37">
+        <v>263.980331303283</v>
+      </c>
+      <c r="S37">
+        <v>0.001654550469173061</v>
+      </c>
+      <c r="T37">
+        <v>0.001036220283138615</v>
       </c>
     </row>
   </sheetData>
